--- a/Routine.xlsx
+++ b/Routine.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programming\CODE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B66B511F-1EF9-4F03-B04B-69354A5E794C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6798E802-05A2-4F51-997F-E0E926EB9E44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DSA" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="418">
   <si>
     <t>24th Feb</t>
   </si>
@@ -1503,6 +1503,9 @@
 Stay Focused: Skip advanced topics (e.g., reinforcement learning) unless you have extra time.
 Mock Interviews: Simulate real interviews to build confidence.
 By the end of 2 months, you’ll have a solid foundation in ML/DL/GenAI, practical projects, and interview-ready skills. Let me know if you’d like me to dive deeper into any section!</t>
+  </si>
+  <si>
+    <t>Completed the Linear regression</t>
   </si>
 </sst>
 </file>
@@ -1852,8 +1855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1965,6 +1968,9 @@
     <row r="4" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>25</v>
+      </c>
+      <c r="K4" t="s">
+        <v>417</v>
       </c>
       <c r="W4" s="1"/>
     </row>
@@ -2024,7 +2030,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2938FFF0-599B-4786-9725-823F8C6C7358}">
   <dimension ref="A1:F384"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A363" workbookViewId="0">
+    <sheetView topLeftCell="A327" workbookViewId="0">
       <selection activeCell="A378" sqref="A378"/>
     </sheetView>
   </sheetViews>
